--- a/BurnDown&WhereTheTimeShouldGo.xlsx
+++ b/BurnDown&WhereTheTimeShouldGo.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daz0050\OneDrive - Ara Institute of Canterbury\CE301 Resourse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxiaobing/Documents/GitHub/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="615" yWindow="1005" windowWidth="16020" windowHeight="12075"/>
+    <workbookView xWindow="620" yWindow="1000" windowWidth="22120" windowHeight="12980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -178,9 +178,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-NZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -315,43 +315,43 @@
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>42940</c:v>
+                  <c:v>42940.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42947</c:v>
+                  <c:v>42947.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42954</c:v>
+                  <c:v>42954.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42961</c:v>
+                  <c:v>42961.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42968</c:v>
+                  <c:v>42968.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42975</c:v>
+                  <c:v>42975.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42982</c:v>
+                  <c:v>42982.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42989</c:v>
+                  <c:v>42989.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42996</c:v>
+                  <c:v>42996.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43003</c:v>
+                  <c:v>43003.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43010</c:v>
+                  <c:v>43010.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43017</c:v>
+                  <c:v>43017.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43024</c:v>
+                  <c:v>43024.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -363,49 +363,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>288</c:v>
+                  <c:v>288.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>264</c:v>
+                  <c:v>264.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>240</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>216</c:v>
+                  <c:v>216.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>192</c:v>
+                  <c:v>192.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>168</c:v>
+                  <c:v>168.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>144</c:v>
+                  <c:v>144.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>120</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>96</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-735C-4487-8720-09E5C50D4323}"/>
             </c:ext>
@@ -428,8 +428,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -446,13 +447,14 @@
             <c:spPr>
               <a:ln w="28575" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:prstDash val="dash"/>
                 <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-735C-4487-8720-09E5C50D4323}"/>
               </c:ext>
@@ -495,7 +497,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -523,43 +525,43 @@
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>42940</c:v>
+                  <c:v>42940.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42947</c:v>
+                  <c:v>42947.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42954</c:v>
+                  <c:v>42954.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42961</c:v>
+                  <c:v>42961.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42968</c:v>
+                  <c:v>42968.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42975</c:v>
+                  <c:v>42975.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42982</c:v>
+                  <c:v>42982.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42989</c:v>
+                  <c:v>42989.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42996</c:v>
+                  <c:v>42996.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43003</c:v>
+                  <c:v>43003.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43010</c:v>
+                  <c:v>43010.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43017</c:v>
+                  <c:v>43017.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43024</c:v>
+                  <c:v>43024.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -571,49 +573,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>288</c:v>
+                  <c:v>288.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>261</c:v>
+                  <c:v>261.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>233</c:v>
+                  <c:v>233.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>212</c:v>
+                  <c:v>212.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>183</c:v>
+                  <c:v>183.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>182</c:v>
+                  <c:v>182.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>182</c:v>
+                  <c:v>182.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>182</c:v>
+                  <c:v>182.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>182</c:v>
+                  <c:v>182.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>182</c:v>
+                  <c:v>182.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>182</c:v>
+                  <c:v>182.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>182</c:v>
+                  <c:v>182.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>182</c:v>
+                  <c:v>182.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-735C-4487-8720-09E5C50D4323}"/>
             </c:ext>
@@ -628,11 +630,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2081015824"/>
-        <c:axId val="-2072983728"/>
+        <c:axId val="2113684784"/>
+        <c:axId val="2113688304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2081015824"/>
+        <c:axId val="2113684784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -675,14 +677,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2072983728"/>
+        <c:crossAx val="2113688304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2072983728"/>
+        <c:axId val="2113688304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -733,7 +735,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2081015824"/>
+        <c:crossAx val="2113684784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1695,12 +1697,12 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1714,7 +1716,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42940</v>
       </c>
@@ -1728,7 +1730,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <f>A2+7</f>
         <v>42947</v>
@@ -1738,194 +1740,194 @@
         <v>264</v>
       </c>
       <c r="C3">
-        <f>C2-D2</f>
+        <f t="shared" ref="C3:C14" si="0">C2-D2</f>
         <v>261</v>
       </c>
       <c r="D3">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <f>A3+7</f>
         <v>42954</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B14" si="0">B3-24</f>
+        <f t="shared" ref="B4:B14" si="1">B3-24</f>
         <v>240</v>
       </c>
       <c r="C4">
-        <f>C3-D3</f>
+        <f t="shared" si="0"/>
         <v>233</v>
       </c>
       <c r="D4">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A14" si="1">A4+7</f>
+        <f t="shared" ref="A5:A14" si="2">A4+7</f>
         <v>42961</v>
       </c>
       <c r="B5">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+      <c r="C5">
         <f t="shared" si="0"/>
-        <v>216</v>
-      </c>
-      <c r="C5">
-        <f>C4-D4</f>
         <v>212</v>
       </c>
       <c r="D5">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
+        <f t="shared" si="2"/>
+        <v>42968</v>
+      </c>
+      <c r="B6">
         <f t="shared" si="1"/>
-        <v>42968</v>
-      </c>
-      <c r="B6">
+        <v>192</v>
+      </c>
+      <c r="C6">
         <f t="shared" si="0"/>
-        <v>192</v>
-      </c>
-      <c r="C6">
-        <f>C5-D5</f>
         <v>183</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
+        <f t="shared" si="2"/>
+        <v>42975</v>
+      </c>
+      <c r="B7">
         <f t="shared" si="1"/>
-        <v>42975</v>
-      </c>
-      <c r="B7">
+        <v>168</v>
+      </c>
+      <c r="C7">
         <f t="shared" si="0"/>
-        <v>168</v>
-      </c>
-      <c r="C7">
-        <f>C6-D6</f>
         <v>182</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
+        <f t="shared" si="2"/>
+        <v>42982</v>
+      </c>
+      <c r="B8">
         <f t="shared" si="1"/>
-        <v>42982</v>
-      </c>
-      <c r="B8">
+        <v>144</v>
+      </c>
+      <c r="C8">
         <f t="shared" si="0"/>
-        <v>144</v>
-      </c>
-      <c r="C8">
-        <f>C7-D7</f>
         <v>182</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
+        <f t="shared" si="2"/>
+        <v>42989</v>
+      </c>
+      <c r="B9">
         <f t="shared" si="1"/>
-        <v>42989</v>
-      </c>
-      <c r="B9">
+        <v>120</v>
+      </c>
+      <c r="C9">
         <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="C9">
-        <f>C8-D8</f>
         <v>182</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <f>A9+7</f>
         <v>42996</v>
       </c>
       <c r="B10">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="C10">
         <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-      <c r="C10">
-        <f>C9-D9</f>
         <v>182</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
+        <f t="shared" si="2"/>
+        <v>43003</v>
+      </c>
+      <c r="B11">
         <f t="shared" si="1"/>
-        <v>43003</v>
-      </c>
-      <c r="B11">
+        <v>72</v>
+      </c>
+      <c r="C11">
         <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="C11">
-        <f>C10-D10</f>
         <v>182</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
+        <f t="shared" si="2"/>
+        <v>43010</v>
+      </c>
+      <c r="B12">
         <f t="shared" si="1"/>
-        <v>43010</v>
-      </c>
-      <c r="B12">
+        <v>48</v>
+      </c>
+      <c r="C12">
         <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="C12">
-        <f>C11-D11</f>
         <v>182</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
+        <f t="shared" si="2"/>
+        <v>43017</v>
+      </c>
+      <c r="B13">
         <f t="shared" si="1"/>
-        <v>43017</v>
-      </c>
-      <c r="B13">
+        <v>24</v>
+      </c>
+      <c r="C13">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C13">
-        <f>C12-D12</f>
         <v>182</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
+        <f t="shared" si="2"/>
+        <v>43024</v>
+      </c>
+      <c r="B14">
         <f t="shared" si="1"/>
-        <v>43024</v>
-      </c>
-      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <f>C13-D13</f>
         <v>182</v>
       </c>
       <c r="D14">
@@ -1946,16 +1948,16 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1963,7 +1965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>45</v>
       </c>
@@ -1975,7 +1977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1996,7 +1998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2005,7 +2007,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2013,7 +2015,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2039,7 +2041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D7">
         <f>D6*5</f>
         <v>13</v>
@@ -2048,7 +2050,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8">
         <f>B6/3</f>
         <v>43.333333333333336</v>
@@ -2061,27 +2063,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>

--- a/BurnDown&WhereTheTimeShouldGo.xlsx
+++ b/BurnDown&WhereTheTimeShouldGo.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet2!$A$1:$G$15</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -297,10 +297,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -308,6 +309,13 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$14</c:f>
@@ -315,43 +323,43 @@
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>42940.0</c:v>
+                  <c:v>42945.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42947.0</c:v>
+                  <c:v>42952.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42954.0</c:v>
+                  <c:v>42959.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42961.0</c:v>
+                  <c:v>42966.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42968.0</c:v>
+                  <c:v>42973.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42975.0</c:v>
+                  <c:v>42980.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42982.0</c:v>
+                  <c:v>42987.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42989.0</c:v>
+                  <c:v>42994.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42996.0</c:v>
+                  <c:v>43001.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43003.0</c:v>
+                  <c:v>43008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43010.0</c:v>
+                  <c:v>43015.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43017.0</c:v>
+                  <c:v>43022.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43024.0</c:v>
+                  <c:v>43029.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -426,12 +434,12 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -445,12 +453,12 @@
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="28575" cap="rnd">
+              <a:ln w="22225" cap="rnd" cmpd="sng">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="dash"/>
-                <a:round/>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -464,7 +472,9 @@
             <c:spPr>
               <a:noFill/>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -525,43 +535,43 @@
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>42940.0</c:v>
+                  <c:v>42945.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42947.0</c:v>
+                  <c:v>42952.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42954.0</c:v>
+                  <c:v>42959.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42961.0</c:v>
+                  <c:v>42966.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42968.0</c:v>
+                  <c:v>42973.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42975.0</c:v>
+                  <c:v>42980.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42982.0</c:v>
+                  <c:v>42987.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42989.0</c:v>
+                  <c:v>42994.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42996.0</c:v>
+                  <c:v>43001.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43003.0</c:v>
+                  <c:v>43008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43010.0</c:v>
+                  <c:v>43015.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43017.0</c:v>
+                  <c:v>43022.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43024.0</c:v>
+                  <c:v>43029.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -576,40 +586,40 @@
                   <c:v>288.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>261.0</c:v>
+                  <c:v>262.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>233.0</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>212.0</c:v>
+                  <c:v>216.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>183.0</c:v>
+                  <c:v>187.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>182.0</c:v>
+                  <c:v>161.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>182.0</c:v>
+                  <c:v>161.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>182.0</c:v>
+                  <c:v>161.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>182.0</c:v>
+                  <c:v>161.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>182.0</c:v>
+                  <c:v>161.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>182.0</c:v>
+                  <c:v>161.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>182.0</c:v>
+                  <c:v>161.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>182.0</c:v>
+                  <c:v>161.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -630,11 +640,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2113684784"/>
-        <c:axId val="2113688304"/>
+        <c:axId val="-2093591840"/>
+        <c:axId val="-2093175520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2113684784"/>
+        <c:axId val="-2093591840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -677,14 +687,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2113688304"/>
+        <c:crossAx val="-2093175520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2113688304"/>
+        <c:axId val="-2093175520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -735,7 +745,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2113684784"/>
+        <c:crossAx val="-2093591840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1697,7 +1707,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1718,7 +1728,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>42940</v>
+        <v>42945</v>
       </c>
       <c r="B2">
         <v>288</v>
@@ -1727,89 +1737,89 @@
         <v>288</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <f>A2+7</f>
-        <v>42947</v>
+        <v>42952</v>
       </c>
       <c r="B3">
         <f>B2-24</f>
         <v>264</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C14" si="0">C2-D2</f>
-        <v>261</v>
+        <f>C2-D2</f>
+        <v>262</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <f>A3+7</f>
-        <v>42954</v>
+        <v>42959</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B14" si="1">B3-24</f>
+        <f t="shared" ref="B4:B14" si="0">B3-24</f>
         <v>240</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>233</v>
+        <f t="shared" ref="C4:C14" si="1">C3-D3</f>
+        <v>240</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A14" si="2">A4+7</f>
-        <v>42961</v>
+        <f>A4+7</f>
+        <v>42966</v>
       </c>
       <c r="B5">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="C5">
         <f t="shared" si="1"/>
         <v>216</v>
       </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>212</v>
-      </c>
       <c r="D5">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <f t="shared" si="2"/>
-        <v>42968</v>
+        <f t="shared" ref="A5:A14" si="2">A5+7</f>
+        <v>42973</v>
       </c>
       <c r="B6">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="C6">
         <f t="shared" si="1"/>
-        <v>192</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <f t="shared" si="2"/>
-        <v>42975</v>
+        <v>42980</v>
       </c>
       <c r="B7">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="C7">
         <f t="shared" si="1"/>
-        <v>168</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1818,15 +1828,15 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <f t="shared" si="2"/>
-        <v>42982</v>
+        <v>42987</v>
       </c>
       <c r="B8">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="C8">
         <f t="shared" si="1"/>
-        <v>144</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1835,15 +1845,15 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <f t="shared" si="2"/>
-        <v>42989</v>
+        <v>42994</v>
       </c>
       <c r="B9">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="C9">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1852,15 +1862,15 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <f>A9+7</f>
-        <v>42996</v>
+        <v>43001</v>
       </c>
       <c r="B10">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="C10">
         <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1869,15 +1879,15 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <f t="shared" si="2"/>
-        <v>43003</v>
+        <v>43008</v>
       </c>
       <c r="B11">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="C11">
         <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1886,15 +1896,15 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <f t="shared" si="2"/>
-        <v>43010</v>
+        <v>43015</v>
       </c>
       <c r="B12">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C12">
         <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1903,15 +1913,15 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <f t="shared" si="2"/>
-        <v>43017</v>
+        <v>43022</v>
       </c>
       <c r="B13">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C13">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1920,15 +1930,15 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <f t="shared" si="2"/>
-        <v>43024</v>
+        <v>43029</v>
       </c>
       <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="D14">
         <v>0</v>

--- a/BurnDown&WhereTheTimeShouldGo.xlsx
+++ b/BurnDown&WhereTheTimeShouldGo.xlsx
@@ -586,40 +586,40 @@
                   <c:v>288.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>262.0</c:v>
+                  <c:v>266.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>240.0</c:v>
+                  <c:v>241.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>216.0</c:v>
+                  <c:v>212.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>187.0</c:v>
+                  <c:v>186.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>161.0</c:v>
+                  <c:v>186.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>161.0</c:v>
+                  <c:v>186.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>161.0</c:v>
+                  <c:v>186.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>161.0</c:v>
+                  <c:v>186.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>161.0</c:v>
+                  <c:v>186.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>161.0</c:v>
+                  <c:v>186.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>161.0</c:v>
+                  <c:v>186.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>161.0</c:v>
+                  <c:v>186.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1707,7 +1707,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1737,7 +1737,7 @@
         <v>288</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1751,10 +1751,10 @@
       </c>
       <c r="C3">
         <f>C2-D2</f>
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1768,10 +1768,10 @@
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C14" si="1">C3-D3</f>
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1785,10 +1785,10 @@
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1802,10 +1802,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>187</v>
-      </c>
-      <c r="D6">
-        <v>26</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1819,7 +1816,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1836,7 +1833,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1853,7 +1850,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1870,7 +1867,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1887,7 +1884,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1904,7 +1901,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1921,7 +1918,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1938,7 +1935,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D14">
         <v>0</v>

--- a/BurnDown&WhereTheTimeShouldGo.xlsx
+++ b/BurnDown&WhereTheTimeShouldGo.xlsx
@@ -598,28 +598,28 @@
                   <c:v>186.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>186.0</c:v>
+                  <c:v>166.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>186.0</c:v>
+                  <c:v>166.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>186.0</c:v>
+                  <c:v>166.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>186.0</c:v>
+                  <c:v>166.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>186.0</c:v>
+                  <c:v>166.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>186.0</c:v>
+                  <c:v>166.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>186.0</c:v>
+                  <c:v>166.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>186.0</c:v>
+                  <c:v>166.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -640,11 +640,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2093591840"/>
-        <c:axId val="-2093175520"/>
+        <c:axId val="-2118484576"/>
+        <c:axId val="-2118481216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2093591840"/>
+        <c:axId val="-2118484576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -687,14 +687,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2093175520"/>
+        <c:crossAx val="-2118481216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2093175520"/>
+        <c:axId val="-2118481216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -745,7 +745,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2093591840"/>
+        <c:crossAx val="-2118484576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1706,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <f t="shared" ref="A5:A14" si="2">A5+7</f>
+        <f t="shared" ref="A6:A14" si="2">A5+7</f>
         <v>42973</v>
       </c>
       <c r="B6">
@@ -1803,6 +1803,9 @@
       <c r="C6">
         <f t="shared" si="1"/>
         <v>186</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1816,7 +1819,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1833,7 +1836,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1850,7 +1853,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1867,7 +1870,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1884,7 +1887,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1901,7 +1904,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1918,7 +1921,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1935,7 +1938,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="D14">
         <v>0</v>

--- a/BurnDown&WhereTheTimeShouldGo.xlsx
+++ b/BurnDown&WhereTheTimeShouldGo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="620" yWindow="1000" windowWidth="22120" windowHeight="12980"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -601,25 +601,25 @@
                   <c:v>166.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>166.0</c:v>
+                  <c:v>147.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>166.0</c:v>
+                  <c:v>147.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>166.0</c:v>
+                  <c:v>147.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>166.0</c:v>
+                  <c:v>147.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>166.0</c:v>
+                  <c:v>147.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>166.0</c:v>
+                  <c:v>147.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>166.0</c:v>
+                  <c:v>147.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -640,11 +640,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2118484576"/>
-        <c:axId val="-2118481216"/>
+        <c:axId val="-2111331984"/>
+        <c:axId val="-2092918928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2118484576"/>
+        <c:axId val="-2111331984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -687,14 +687,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2118481216"/>
+        <c:crossAx val="-2092918928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2118481216"/>
+        <c:axId val="-2092918928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -745,7 +745,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2118484576"/>
+        <c:crossAx val="-2111331984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1387,15 +1387,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1706,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1822,7 +1822,7 @@
         <v>166</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1946,6 +1946,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>

--- a/BurnDown&WhereTheTimeShouldGo.xlsx
+++ b/BurnDown&WhereTheTimeShouldGo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -604,22 +604,22 @@
                   <c:v>147.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>147.0</c:v>
+                  <c:v>118.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>147.0</c:v>
+                  <c:v>118.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>147.0</c:v>
+                  <c:v>118.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>147.0</c:v>
+                  <c:v>118.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>147.0</c:v>
+                  <c:v>118.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>147.0</c:v>
+                  <c:v>118.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -640,11 +640,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2111331984"/>
-        <c:axId val="-2092918928"/>
+        <c:axId val="-2110113568"/>
+        <c:axId val="-2110110720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2111331984"/>
+        <c:axId val="-2110113568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -687,14 +687,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2092918928"/>
+        <c:crossAx val="-2110110720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2092918928"/>
+        <c:axId val="-2110110720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -745,7 +745,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2111331984"/>
+        <c:crossAx val="-2110113568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1707,7 +1707,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1839,7 +1839,7 @@
         <v>147</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="D14">
         <v>0</v>

--- a/BurnDown&WhereTheTimeShouldGo.xlsx
+++ b/BurnDown&WhereTheTimeShouldGo.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet2!$A$1:$G$15</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>credits</t>
   </si>
@@ -113,6 +114,60 @@
   </si>
   <si>
     <t>Spend/hrs</t>
+  </si>
+  <si>
+    <t>Achievement</t>
+  </si>
+  <si>
+    <t>Achieve Date</t>
+  </si>
+  <si>
+    <t>Sign off the proposal</t>
+  </si>
+  <si>
+    <t>First iteration of proposal to ensured the project was feasible</t>
+  </si>
+  <si>
+    <t>Second iteration of proposal to achieved understanding of the required functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagram project demo under Github version control </t>
+  </si>
+  <si>
+    <t>Demo on the Github web page</t>
+  </si>
+  <si>
+    <t>Gained understanding of some common issues</t>
+  </si>
+  <si>
+    <t>Risk management plan:50 risks identified in notes</t>
+  </si>
+  <si>
+    <t>8 mail risks analysis</t>
+  </si>
+  <si>
+    <t>QA for course</t>
+  </si>
+  <si>
+    <t>First iteration of Diagram activity demo</t>
+  </si>
+  <si>
+    <t>Finish Implement Diagram and test on local test environment</t>
+  </si>
+  <si>
+    <t>Finish developming basic features such as "input" type and "drag" type</t>
+  </si>
+  <si>
+    <t>Using JsDoc to generate API for Diagram</t>
+  </si>
+  <si>
+    <t>Coordinates generator tool achieved</t>
+  </si>
+  <si>
+    <t>Methodology Essay Part A</t>
+  </si>
+  <si>
+    <t>Halfway report cover all topics</t>
   </si>
 </sst>
 </file>
@@ -156,10 +211,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,9 +490,12 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng">
+            <a:ln w="15875" cap="rnd" cmpd="sng">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
@@ -453,9 +512,12 @@
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="22225" cap="rnd" cmpd="sng">
+              <a:ln w="15875" cap="rnd" cmpd="sng">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:prstDash val="solid"/>
                 <a:miter lim="800000"/>
@@ -607,19 +669,19 @@
                   <c:v>118.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>118.0</c:v>
+                  <c:v>93.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>118.0</c:v>
+                  <c:v>93.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>118.0</c:v>
+                  <c:v>93.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>118.0</c:v>
+                  <c:v>93.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>118.0</c:v>
+                  <c:v>93.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -640,11 +702,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2110113568"/>
-        <c:axId val="-2110110720"/>
+        <c:axId val="2122014704"/>
+        <c:axId val="-2121515744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2110113568"/>
+        <c:axId val="2122014704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -687,16 +749,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110110720"/>
+        <c:crossAx val="-2121515744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2110110720"/>
+        <c:axId val="-2121515744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -745,7 +808,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110113568"/>
+        <c:crossAx val="2122014704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1387,14 +1450,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:colOff>12701</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1706,8 +1769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1856,7 +1919,7 @@
         <v>118</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1870,7 +1933,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1887,7 +1950,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1904,7 +1967,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1921,7 +1984,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1938,7 +2001,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2103,4 +2166,370 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>42945</v>
+      </c>
+      <c r="B2">
+        <v>288</v>
+      </c>
+      <c r="C2">
+        <v>288</v>
+      </c>
+      <c r="D2">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3">
+        <v>42945</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <f>A2+7</f>
+        <v>42952</v>
+      </c>
+      <c r="B3">
+        <f>B2-24</f>
+        <v>264</v>
+      </c>
+      <c r="C3">
+        <f>C2-D2</f>
+        <v>266</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3">
+        <v>42948</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <f>A3+7</f>
+        <v>42959</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B14" si="0">B3-24</f>
+        <v>240</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C14" si="1">C3-D3</f>
+        <v>241</v>
+      </c>
+      <c r="D4">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3">
+        <v>42952</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <f>A4+7</f>
+        <v>42966</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>212</v>
+      </c>
+      <c r="D5">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3">
+        <v>42953</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <f t="shared" ref="A6:A14" si="2">A5+7</f>
+        <v>42973</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>186</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3">
+        <v>42957</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <f t="shared" si="2"/>
+        <v>42980</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>166</v>
+      </c>
+      <c r="D7">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3">
+        <v>42959</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <f>A7+7</f>
+        <v>42987</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>147</v>
+      </c>
+      <c r="D8">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3">
+        <v>42960</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <f t="shared" si="2"/>
+        <v>42994</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3">
+        <v>42963</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <f>A9+7</f>
+        <v>43001</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>42964</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <f t="shared" si="2"/>
+        <v>43008</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>42965</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <f t="shared" si="2"/>
+        <v>43015</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>42971</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <f t="shared" si="2"/>
+        <v>43022</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>42975</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <f t="shared" si="2"/>
+        <v>43029</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>42978</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E15" s="3">
+        <v>42984</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E16" s="3">
+        <v>42986</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E17" s="3">
+        <v>42992</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E18" s="3">
+        <v>42996</v>
+      </c>
+      <c r="F18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BurnDown&WhereTheTimeShouldGo.xlsx
+++ b/BurnDown&WhereTheTimeShouldGo.xlsx
@@ -672,16 +672,16 @@
                   <c:v>93.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>93.0</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>93.0</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>93.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>93.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -702,11 +702,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2122014704"/>
-        <c:axId val="-2121515744"/>
+        <c:axId val="-2076320592"/>
+        <c:axId val="-2075773344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2122014704"/>
+        <c:axId val="-2076320592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -749,14 +749,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2121515744"/>
+        <c:crossAx val="-2075773344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2121515744"/>
+        <c:axId val="-2075773344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300.0"/>
@@ -808,7 +808,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122014704"/>
+        <c:crossAx val="-2076320592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1456,9 +1456,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>749300</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1769,8 +1769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1936,7 +1936,7 @@
         <v>93</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1950,10 +1950,10 @@
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1967,10 +1967,10 @@
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1984,10 +1984,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2001,7 +1998,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="D14">
         <v>0</v>

--- a/BurnDown&WhereTheTimeShouldGo.xlsx
+++ b/BurnDown&WhereTheTimeShouldGo.xlsx
@@ -681,7 +681,7 @@
                   <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.0</c:v>
+                  <c:v>-7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -702,11 +702,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2076320592"/>
-        <c:axId val="-2075773344"/>
+        <c:axId val="2136565696"/>
+        <c:axId val="2137059184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2076320592"/>
+        <c:axId val="2136565696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -749,14 +749,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075773344"/>
+        <c:crossAx val="2137059184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2075773344"/>
+        <c:axId val="2137059184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300.0"/>
@@ -808,7 +808,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2076320592"/>
+        <c:crossAx val="2136565696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1770,7 +1770,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1986,6 +1986,9 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -1998,7 +2001,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>-7</v>
       </c>
       <c r="D14">
         <v>0</v>

--- a/BurnDown&WhereTheTimeShouldGo.xlsx
+++ b/BurnDown&WhereTheTimeShouldGo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500"/>
+    <workbookView xWindow="-120" yWindow="1960" windowWidth="25600" windowHeight="14500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>credits</t>
   </si>
@@ -168,6 +168,27 @@
   </si>
   <si>
     <t>Halfway report cover all topics</t>
+  </si>
+  <si>
+    <t>A "Hangman" demo with basic function code</t>
+  </si>
+  <si>
+    <t>Notes for Risks and XP game for Methodology topic</t>
+  </si>
+  <si>
+    <t>Fixed CoordianteCreater bugs</t>
+  </si>
+  <si>
+    <t>Finished "Hangman"  with all functions</t>
+  </si>
+  <si>
+    <t>Test Diagram and Hangman on Moodle3 environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recreate CoordinateCreater2 tool for Diagram</t>
+  </si>
+  <si>
+    <t>Adding new type of Diagram quiz</t>
   </si>
 </sst>
 </file>
@@ -211,11 +232,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,11 +726,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2136565696"/>
-        <c:axId val="2137059184"/>
+        <c:axId val="-2073984864"/>
+        <c:axId val="-2098481136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2136565696"/>
+        <c:axId val="-2073984864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -749,14 +773,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137059184"/>
+        <c:crossAx val="-2098481136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2137059184"/>
+        <c:axId val="-2098481136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300.0"/>
@@ -808,7 +832,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136565696"/>
+        <c:crossAx val="-2073984864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1769,7 +1793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -2170,10 +2194,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2529,6 +2553,62 @@
         <v>40</v>
       </c>
     </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E19" s="3">
+        <v>43002</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E20" s="3">
+        <v>43005</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E21" s="3">
+        <v>43007</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E22" s="3">
+        <v>43010</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E23" s="3">
+        <v>43016</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E24" s="3">
+        <v>43020</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E25" s="3">
+        <v>43023</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
